--- a/PhysicalParams.xlsx
+++ b/PhysicalParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/kmckell_calpoly_edu/Documents/Teaching/EE514/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley Kwan\Desktop\College Stuff\EE 514\EE514_Project\EE514_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10ADAC07-859F-8E4C-9169-54DA38A0A306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDE062-0A94-4153-A8D0-AA8C7F686D7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{1EB26742-22F6-2549-A23D-1E84E4C88797}"/>
+    <workbookView minimized="1" xWindow="360" yWindow="360" windowWidth="19185" windowHeight="10785" xr2:uid="{1EB26742-22F6-2549-A23D-1E84E4C88797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,15 +442,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -478,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -492,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -503,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -517,7 +518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
